--- a/app/exel/soderzimoe_full.xlsx
+++ b/app/exel/soderzimoe_full.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,21 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>KILKIST</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>KILKIST_PACK</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>KILKIST_SHT</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>SP_NR</t>
         </is>
       </c>
@@ -461,22 +476,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5891450</t>
+          <t>FD6293453</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>000022995</t>
+          <t>000063815</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BOUNTY (STD) 12*24*57г</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>A-37.06.3</t>
+          <t>Тімі Bеселі ведмедики Молока 125г/16</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>112</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>AB-10.121.1</t>
         </is>
       </c>
     </row>
@@ -486,22 +510,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FD5944896</t>
+          <t>FD6408007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>000022995</t>
+          <t>000063815</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BOUNTY (STD) 12*24*57г</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>B-05.041.2</t>
+          <t>Тімі Bеселі ведмедики Молока 125г/16</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>128</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B-02.059.3</t>
         </is>
       </c>
     </row>
@@ -511,22 +544,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FD6097595</t>
+          <t>6488220</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>000022995</t>
+          <t>000063815</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BOUNTY (STD) 12*24*57г</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>B-04.097.3</t>
+          <t>Тімі Bеселі ведмедики Молока 125г/16</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>101</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A-42.17.3</t>
         </is>
       </c>
     </row>
@@ -536,72 +578,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FD6097777</t>
+          <t>6504202</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>000022995</t>
+          <t>000063815</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BOUNTY (STD) 12*24*57г</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>B-05.053.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>6212477</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>000022995</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>BOUNTY (STD) 12*24*57г</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>AB-09.177.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>FD6097776</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>000022995</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>BOUNTY (STD) 12*24*57г</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>B-07.099.3</t>
+          <t>Тімі Bеселі ведмедики Молока 125г/16</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>KARANTIN</t>
         </is>
       </c>
     </row>
